--- a/Petstore_Test_Script.xlsx
+++ b/Petstore_Test_Script.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chaitu/workspace/Pets-API-Test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chaitu/workspace/Pets-API-Test/petstore-api-manual/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE7EDF5-ECC4-BE4A-A96D-B9EB673F31B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BCD874-8018-304E-A2F1-0CEC2A09EF73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{AE1E02FE-EB7A-F44F-A821-8E28A1E55D37}"/>
   </bookViews>
@@ -16,9 +16,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$15:$I$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$15:$I$29</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="97">
   <si>
     <t>Test Details</t>
   </si>
@@ -84,9 +84,225 @@
     <t>Last Modified On</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">  </t>
-    </r>
+    <t>Test Case ID</t>
+  </si>
+  <si>
+    <t>Procedure</t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Actual Result</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Status code 200</t>
+  </si>
+  <si>
+    <t>As expected</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>Status code 404</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>https://petstore.swagger.io/v2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>TC_1</t>
+  </si>
+  <si>
+    <t>HTTP Method</t>
+  </si>
+  <si>
+    <t>API Endpoint</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>Validate status code with pet id as integer</t>
+  </si>
+  <si>
+    <t>/pet/string_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;&gt;Select GET method
+&gt;&gt;Enter API endpoints
+&gt;&gt;Click Send button
+</t>
+  </si>
+  <si>
+    <t>Status code 400</t>
+  </si>
+  <si>
+    <t>Validate request pet id matches response pet id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;&gt;Select GET method
+&gt;&gt;Enter API endpoints
+&gt;&gt;Click Send button
+&gt;&gt;Verify pet id </t>
+  </si>
+  <si>
+    <t>Validate pet with pet id as string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate status code with invalid pet id </t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>/pet/</t>
+  </si>
+  <si>
+    <t>Response body should be displayed as below
+{
+    "id": 102,
+    "name": "Tom",
+    "photoUrls": [],
+    "tags": [],
+    "status": "available"
+}</t>
+  </si>
+  <si>
+    <t>Validate status code of created pet</t>
+  </si>
+  <si>
+    <t>/pet/102</t>
+  </si>
+  <si>
+    <t>Validate created record by GET request</t>
+  </si>
+  <si>
+    <t>Test Tool</t>
+  </si>
+  <si>
+    <t>Postman</t>
+  </si>
+  <si>
+    <t>TC_2</t>
+  </si>
+  <si>
+    <t>TC_3</t>
+  </si>
+  <si>
+    <t>TC_4</t>
+  </si>
+  <si>
+    <t>TC_5</t>
+  </si>
+  <si>
+    <t>TC_6</t>
+  </si>
+  <si>
+    <t>TC_7</t>
+  </si>
+  <si>
+    <t>TC_8</t>
+  </si>
+  <si>
+    <t>TC_9</t>
+  </si>
+  <si>
+    <t>Response body should be displayed as
+{
+    "id": 18121990,
+    "name": "Yedo",
+    "photoUrls": [],
+    "tags": [],
+    "status": "Available"
+}</t>
+  </si>
+  <si>
+    <t>/pet/18121990</t>
+  </si>
+  <si>
+    <t>Pet id should be displayed as 18121990</t>
+  </si>
+  <si>
+    <t>Validate create pet with pet id as integer</t>
+  </si>
+  <si>
+    <t>Validate create pet with pet id as string</t>
+  </si>
+  <si>
+    <t>Status code 500</t>
+  </si>
+  <si>
+    <t>TC_10</t>
+  </si>
+  <si>
+    <t>TC_11</t>
+  </si>
+  <si>
+    <t>&gt;&gt;Select GET method
+&gt;&gt;Enter API endpoints
+&gt;&gt;Navigate to Headers tab and enter key ,value as below
+key=Content-Type
+value=application/xml
+&gt;&gt;Click Send button</t>
+  </si>
+  <si>
+    <t>&gt;&gt;Select POST method
+&gt;&gt;Enter API endpoints
+&gt;&gt;Navigate to Headers tab and set key and value as below
+Key =Content-Type
+value =application/json
+&gt;&gt;Navigate to Body tab select raw
+&gt;&gt;Enter data specified in  test data column</t>
+  </si>
+  <si>
+    <t>&gt;&gt;Select GET method
+&gt;&gt;Enter API endpoints
+&gt;&gt;Click Send button</t>
+  </si>
+  <si>
+    <t>/pet/%%##@@</t>
+  </si>
+  <si>
+    <t>&gt;&gt;Select POST method
+&gt;&gt;Enter API endpoints
+&gt;&gt;Navigate to Headers tab and set key and value as below
+Key =Content-Type
+value =application/json
+&gt;&gt;Navigate to Body tab select raw
+&gt;&gt;Enter data specified in test data column</t>
+  </si>
+  <si>
+    <t>Expected status code is "201 Created"</t>
+  </si>
+  <si>
+    <t>TC_12</t>
+  </si>
+  <si>
+    <t>Validate status code with content type as application/text</t>
+  </si>
+  <si>
+    <t>/pet/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate pet with invalid pet id </t>
+  </si>
+  <si>
+    <t>Validate minimum required fields in response body (id,name, status)</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -110,273 +326,119 @@
     </r>
   </si>
   <si>
-    <t>Test Case ID</t>
-  </si>
-  <si>
-    <t>Procedure</t>
-  </si>
-  <si>
-    <t>Test Data</t>
-  </si>
-  <si>
-    <t>Expected Result</t>
-  </si>
-  <si>
-    <t>Actual Result</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Status code 200</t>
-  </si>
-  <si>
-    <t>As expected</t>
-  </si>
-  <si>
-    <t>Passed</t>
-  </si>
-  <si>
-    <t>Status code 404</t>
-  </si>
-  <si>
-    <t>Failed</t>
-  </si>
-  <si>
-    <t>https://petstore.swagger.io/v2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>TC_1</t>
-  </si>
-  <si>
-    <t>HTTP Method</t>
-  </si>
-  <si>
-    <t>API Endpoint</t>
-  </si>
-  <si>
-    <t>GET</t>
-  </si>
-  <si>
-    <t>Validate status code with pet id as integer</t>
-  </si>
-  <si>
-    <t>/pet/string_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt;&gt;Select GET method
-&gt;&gt;Enter API endpoints
-&gt;&gt;Click Send button
-</t>
-  </si>
-  <si>
-    <t>Status code 405</t>
-  </si>
-  <si>
-    <t>Status code 400</t>
-  </si>
-  <si>
-    <t>Validate request pet id matches response pet id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt;&gt;Select GET method
-&gt;&gt;Enter API endpoints
-&gt;&gt;Click Send button
-&gt;&gt;Verify pet id </t>
-  </si>
-  <si>
-    <t>Validate pet with pet id as string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Validate status code with invalid pet id </t>
-  </si>
-  <si>
-    <t>POST</t>
-  </si>
-  <si>
-    <t>/pet/</t>
-  </si>
-  <si>
-    <t>{
-	"id": 102,
-	"name": "Tom",
-	"status": "available"
-}</t>
+    <t>Validate response payload</t>
   </si>
   <si>
     <t>Response body should be displayed as below
 {
-    "id": 102,
-    "name": "Tom",
+    "id": 991985,
+    "name": "Milo",
     "photoUrls": [],
     "tags": [],
-    "status": "available"
+    "status": "Sold"
 }</t>
   </si>
   <si>
-    <t>Validate status code of created pet</t>
-  </si>
-  <si>
     <t>{
-	"id": "103",
+	"id": 991985,
+	"name": "Milo",
+	"status": "Sold"
+}</t>
+  </si>
+  <si>
+    <t>{
+	"id": 103,
 	"name": "Lucy",
 	"status": ""
 }</t>
   </si>
   <si>
-    <t>/pet/102</t>
-  </si>
-  <si>
-    <t>Validate created record by GET request</t>
-  </si>
-  <si>
-    <t>Test Tool</t>
-  </si>
-  <si>
-    <t>Postman</t>
-  </si>
-  <si>
-    <t>TC_2</t>
-  </si>
-  <si>
-    <t>TC_3</t>
-  </si>
-  <si>
-    <t>TC_4</t>
-  </si>
-  <si>
-    <t>TC_5</t>
-  </si>
-  <si>
-    <t>TC_6</t>
-  </si>
-  <si>
-    <t>TC_7</t>
-  </si>
-  <si>
-    <t>TC_8</t>
-  </si>
-  <si>
-    <t>TC_9</t>
-  </si>
-  <si>
-    <t>Validate minimum required fields in response body</t>
-  </si>
-  <si>
-    <t>Response body should be displayed as
-{
-    "id": 18121990,
-    "name": "Yedo",
-    "photoUrls": [],
-    "tags": [],
-    "status": "Available"
-}</t>
-  </si>
-  <si>
-    <t>/pet/18121990</t>
-  </si>
-  <si>
-    <t>/pet/00000</t>
-  </si>
-  <si>
-    <t>Pet id should be displayed as 18121990</t>
-  </si>
-  <si>
-    <t>Validate create pet with pet id as integer</t>
-  </si>
-  <si>
-    <t>Validate create pet with pet id as string</t>
+    <t>Validate response header</t>
   </si>
   <si>
     <t>&gt;&gt;Select POST method
 &gt;&gt;Enter API endpoints
 &gt;&gt;Navigate to Headers tab and set key and value as below
-Key =Content-Type
-value =application/json
+Content-Type:application/json
 &gt;&gt;Navigate to Body tab select raw
-&gt;&gt;Enter data specified in test data column
-&gt;&gt;Verify status code</t>
-  </si>
-  <si>
-    <t>{
-	"id":"@34$",
-	"name":"Lucilia"
-}</t>
-  </si>
-  <si>
-    <t>Status code 500</t>
-  </si>
-  <si>
-    <t>Validate create pet without pet id</t>
-  </si>
-  <si>
-    <t>{
-	"name":"mercy"
-}</t>
-  </si>
-  <si>
-    <t>Status code 200 with response body as
-{
-    "id": 9216678377732766553,
-    "name": "mercy",
-    "photoUrls": [],
-    "tags": []
-}</t>
-  </si>
-  <si>
-    <t>TC_10</t>
-  </si>
-  <si>
-    <t>TC_11</t>
-  </si>
-  <si>
-    <t>&gt;&gt;Select GET method
-&gt;&gt;Enter API endpoints
-&gt;&gt;Navigate to Headers tab and enter key ,value as below
-key=Content-Type
-value=application/xml
-&gt;&gt;Click Send button</t>
+&gt;&gt;Enter data specified in  test data column</t>
+  </si>
+  <si>
+    <t>Content-Type should be application/json</t>
+  </si>
+  <si>
+    <t>rawstring</t>
   </si>
   <si>
     <t>&gt;&gt;Select POST method
 &gt;&gt;Enter API endpoints
 &gt;&gt;Navigate to Headers tab and set key and value as below
-Key =Content-Type
-value =application/json
-&gt;&gt;Navigate to Body tab select raw
+Content-Type:application/json
+&gt;&gt;Navigate to Body tab select raw and JSON
 &gt;&gt;Enter data specified in  test data column</t>
   </si>
   <si>
-    <t>Validate status code for invalid URI</t>
-  </si>
-  <si>
-    <t>&gt;&gt;Select GET method
-&gt;&gt;Enter API endpoints
-&gt;&gt;Click Send button</t>
-  </si>
-  <si>
-    <t>/pet/%%##@@</t>
+    <t>Validate create pet with raw data</t>
+  </si>
+  <si>
+    <t>&gt;&gt;Select POST method
+&gt;&gt;Enter API endpoint
+&gt;&gt;Navigate to Headers tab and set KEY:VALUE as below
+Content-Type:application/json
+&gt;&gt;Navigate to Body tab select raw &amp; JSON
+&gt;&gt;Enter data specified in test data column
+&gt;&gt;Verify status code</t>
+  </si>
+  <si>
+    <t>{
+	"id":"string id",
+	"name":"Milo"
+}</t>
+  </si>
+  <si>
+    <t>&gt;&gt;Select POST method
+&gt;&gt;Enter API endpoint
+&gt;&gt;Navigate to Headers tab and set KEY:VALUE as below
+Content-Type:application/json
+&gt;&gt;Navigate to Body tab select raw &amp; JSON
+&gt;&gt;Enter data specified in test data column</t>
+  </si>
+  <si>
+    <t>Message field with value should exist in response body 
+"message": "something bad happened"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate message field  in response body </t>
   </si>
   <si>
     <t>&gt;&gt;Select POST method
 &gt;&gt;Enter API endpoints
-&gt;&gt;Navigate to Headers tab and set key and value as below
-Key =Content-Type
-value =application/json
-&gt;&gt;Navigate to Body tab select raw
-&gt;&gt;Enter data specified in test data column</t>
-  </si>
-  <si>
-    <t>Expected status code is "201 Created"</t>
-  </si>
-  <si>
-    <t>TC_12</t>
-  </si>
-  <si>
-    <t>Validate status code with content type as application/text</t>
+&gt;&gt;Navigate to Headers tab and set KEY:VALUE as below
+Content-Type:application/json
+&gt;&gt;Navigate to Body tab select raw &amp; JSON
+&gt;&gt;Enter raw data (not a JSON)
+&gt;&gt;Verify status code</t>
+  </si>
+  <si>
+    <t>Validate message field  in response body for raw data</t>
+  </si>
+  <si>
+    <t>Message field with value should exist in response body 
+"message": " bad input"</t>
+  </si>
+  <si>
+    <t>&gt;&gt;Select POST method
+&gt;&gt;Enter API endpoints
+&gt;&gt;Navigate to Headers tab and set KEY:VALUE as below
+Content-Type:application/json
+&gt;&gt;Navigate to Body tab select raw &amp; JSON
+&gt;&gt;Enter raw data (not a JSON)</t>
+  </si>
+  <si>
+    <t>{
+	"id": 991985,
+	"name": "Milo"
+}</t>
   </si>
 </sst>
 </file>
@@ -443,7 +505,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -471,6 +533,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFE5E4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,7 +633,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -608,13 +676,17 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -938,9 +1010,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BBC5CD2-598D-A94A-B62A-AB2E1C639876}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -948,20 +1020,20 @@
   <cols>
     <col min="1" max="1" width="20.1640625" customWidth="1"/>
     <col min="2" max="2" width="45.83203125" customWidth="1"/>
-    <col min="3" max="3" width="31.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" customWidth="1"/>
-    <col min="6" max="6" width="31.6640625" customWidth="1"/>
-    <col min="7" max="7" width="44" customWidth="1"/>
+    <col min="3" max="3" width="55.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.83203125" customWidth="1"/>
     <col min="8" max="8" width="17.6640625" customWidth="1"/>
     <col min="9" max="9" width="18" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="20"/>
+      <c r="A1" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="24"/>
     </row>
     <row r="2" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
@@ -997,8 +1069,8 @@
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="22" t="s">
-        <v>28</v>
+      <c r="B6" s="20" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="19" x14ac:dyDescent="0.25">
@@ -1011,10 +1083,10 @@
     </row>
     <row r="8" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="19" x14ac:dyDescent="0.25">
@@ -1047,369 +1119,481 @@
     </row>
     <row r="15" spans="1:9" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="10" t="s">
+      <c r="G15" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="H15" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="I15" s="10" t="s">
         <v>21</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="1" customFormat="1" ht="80" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="13" t="s">
+      <c r="I16" s="12" t="s">
         <v>24</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="1" customFormat="1" ht="80" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H17" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="12" t="s">
         <v>24</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="1" customFormat="1" ht="80" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C18" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>26</v>
-      </c>
       <c r="H18" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="12" t="s">
         <v>24</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="1" customFormat="1" ht="140" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F19" s="16"/>
       <c r="G19" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H20" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="12" t="s">
         <v>24</v>
-      </c>
-      <c r="I20" s="12" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="1" customFormat="1" ht="80" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="18" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H21" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" s="12" t="s">
         <v>24</v>
-      </c>
-      <c r="I21" s="12" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="1" customFormat="1" ht="160" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>63</v>
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="1" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="1" customFormat="1" ht="160" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="180" x14ac:dyDescent="0.2">
+      <c r="A25" s="12"/>
+      <c r="B25" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="140" x14ac:dyDescent="0.2">
+      <c r="A26" s="12"/>
+      <c r="B26" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="140" x14ac:dyDescent="0.2">
+      <c r="A27" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="H27" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="H22" s="13" t="s">
+      <c r="I27" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="120" x14ac:dyDescent="0.2">
+      <c r="A28" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I28" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I22" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="1" customFormat="1" ht="200" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F23" s="18" t="s">
+    </row>
+    <row r="29" spans="1:9" ht="140" x14ac:dyDescent="0.2">
+      <c r="A29" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="120" x14ac:dyDescent="0.2">
+      <c r="A30" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+      <c r="A34" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="G23" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" s="13" t="s">
+      <c r="F34" s="13"/>
+      <c r="G34" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I34" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I23" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="1" customFormat="1" ht="200" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="H24" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="I24" s="15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="80" x14ac:dyDescent="0.2">
-      <c r="A25" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I25" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="220" x14ac:dyDescent="0.2">
-      <c r="A26" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F26" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="G26" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="H26" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="I26" s="15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="240" x14ac:dyDescent="0.2">
-      <c r="A27" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F27" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="G27" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="H27" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="I27" s="15" t="s">
-        <v>27</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A15:I27" xr:uid="{B976BCFC-8A50-D844-94B2-758B0DB17CA0}"/>
+  <autoFilter ref="A15:I29" xr:uid="{B976BCFC-8A50-D844-94B2-758B0DB17CA0}"/>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>

--- a/Petstore_Test_Script.xlsx
+++ b/Petstore_Test_Script.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chaitu/workspace/Pets-API-Test/petstore-api-manual/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nevagipr/workspace/petstore-api-manual/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BCD874-8018-304E-A2F1-0CEC2A09EF73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1C30D4-A20B-2D47-89CA-88D9EE35EDE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{AE1E02FE-EB7A-F44F-A821-8E28A1E55D37}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$15:$I$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$15:$J$29</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
   <si>
     <t>Test Details</t>
   </si>
@@ -135,61 +135,18 @@
     <t>GET</t>
   </si>
   <si>
-    <t>Validate status code with pet id as integer</t>
-  </si>
-  <si>
     <t>/pet/string_id</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt;&gt;Select GET method
-&gt;&gt;Enter API endpoints
-&gt;&gt;Click Send button
-</t>
-  </si>
-  <si>
     <t>Status code 400</t>
   </si>
   <si>
-    <t>Validate request pet id matches response pet id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt;&gt;Select GET method
-&gt;&gt;Enter API endpoints
-&gt;&gt;Click Send button
-&gt;&gt;Verify pet id </t>
-  </si>
-  <si>
-    <t>Validate pet with pet id as string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Validate status code with invalid pet id </t>
-  </si>
-  <si>
     <t>POST</t>
   </si>
   <si>
     <t>/pet/</t>
   </si>
   <si>
-    <t>Response body should be displayed as below
-{
-    "id": 102,
-    "name": "Tom",
-    "photoUrls": [],
-    "tags": [],
-    "status": "available"
-}</t>
-  </si>
-  <si>
-    <t>Validate status code of created pet</t>
-  </si>
-  <si>
-    <t>/pet/102</t>
-  </si>
-  <si>
-    <t>Validate created record by GET request</t>
-  </si>
-  <si>
     <t>Test Tool</t>
   </si>
   <si>
@@ -220,28 +177,6 @@
     <t>TC_9</t>
   </si>
   <si>
-    <t>Response body should be displayed as
-{
-    "id": 18121990,
-    "name": "Yedo",
-    "photoUrls": [],
-    "tags": [],
-    "status": "Available"
-}</t>
-  </si>
-  <si>
-    <t>/pet/18121990</t>
-  </si>
-  <si>
-    <t>Pet id should be displayed as 18121990</t>
-  </si>
-  <si>
-    <t>Validate create pet with pet id as integer</t>
-  </si>
-  <si>
-    <t>Validate create pet with pet id as string</t>
-  </si>
-  <si>
     <t>Status code 500</t>
   </si>
   <si>
@@ -251,56 +186,16 @@
     <t>TC_11</t>
   </si>
   <si>
-    <t>&gt;&gt;Select GET method
-&gt;&gt;Enter API endpoints
-&gt;&gt;Navigate to Headers tab and enter key ,value as below
-key=Content-Type
-value=application/xml
-&gt;&gt;Click Send button</t>
-  </si>
-  <si>
-    <t>&gt;&gt;Select POST method
-&gt;&gt;Enter API endpoints
-&gt;&gt;Navigate to Headers tab and set key and value as below
-Key =Content-Type
-value =application/json
-&gt;&gt;Navigate to Body tab select raw
-&gt;&gt;Enter data specified in  test data column</t>
-  </si>
-  <si>
-    <t>&gt;&gt;Select GET method
-&gt;&gt;Enter API endpoints
-&gt;&gt;Click Send button</t>
-  </si>
-  <si>
     <t>/pet/%%##@@</t>
   </si>
   <si>
-    <t>&gt;&gt;Select POST method
-&gt;&gt;Enter API endpoints
-&gt;&gt;Navigate to Headers tab and set key and value as below
-Key =Content-Type
-value =application/json
-&gt;&gt;Navigate to Body tab select raw
-&gt;&gt;Enter data specified in test data column</t>
-  </si>
-  <si>
     <t>Expected status code is "201 Created"</t>
   </si>
   <si>
     <t>TC_12</t>
   </si>
   <si>
-    <t>Validate status code with content type as application/text</t>
-  </si>
-  <si>
     <t>/pet/0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Validate pet with invalid pet id </t>
-  </si>
-  <si>
-    <t>Validate minimum required fields in response body (id,name, status)</t>
   </si>
   <si>
     <r>
@@ -326,68 +221,7 @@
     </r>
   </si>
   <si>
-    <t>Validate response payload</t>
-  </si>
-  <si>
-    <t>Response body should be displayed as below
-{
-    "id": 991985,
-    "name": "Milo",
-    "photoUrls": [],
-    "tags": [],
-    "status": "Sold"
-}</t>
-  </si>
-  <si>
-    <t>{
-	"id": 991985,
-	"name": "Milo",
-	"status": "Sold"
-}</t>
-  </si>
-  <si>
-    <t>{
-	"id": 103,
-	"name": "Lucy",
-	"status": ""
-}</t>
-  </si>
-  <si>
-    <t>Validate response header</t>
-  </si>
-  <si>
-    <t>&gt;&gt;Select POST method
-&gt;&gt;Enter API endpoints
-&gt;&gt;Navigate to Headers tab and set key and value as below
-Content-Type:application/json
-&gt;&gt;Navigate to Body tab select raw
-&gt;&gt;Enter data specified in  test data column</t>
-  </si>
-  <si>
-    <t>Content-Type should be application/json</t>
-  </si>
-  <si>
     <t>rawstring</t>
-  </si>
-  <si>
-    <t>&gt;&gt;Select POST method
-&gt;&gt;Enter API endpoints
-&gt;&gt;Navigate to Headers tab and set key and value as below
-Content-Type:application/json
-&gt;&gt;Navigate to Body tab select raw and JSON
-&gt;&gt;Enter data specified in  test data column</t>
-  </si>
-  <si>
-    <t>Validate create pet with raw data</t>
-  </si>
-  <si>
-    <t>&gt;&gt;Select POST method
-&gt;&gt;Enter API endpoint
-&gt;&gt;Navigate to Headers tab and set KEY:VALUE as below
-Content-Type:application/json
-&gt;&gt;Navigate to Body tab select raw &amp; JSON
-&gt;&gt;Enter data specified in test data column
-&gt;&gt;Verify status code</t>
   </si>
   <si>
     <t>{
@@ -396,56 +230,141 @@
 }</t>
   </si>
   <si>
-    <t>&gt;&gt;Select POST method
-&gt;&gt;Enter API endpoint
-&gt;&gt;Navigate to Headers tab and set KEY:VALUE as below
-Content-Type:application/json
-&gt;&gt;Navigate to Body tab select raw &amp; JSON
-&gt;&gt;Enter data specified in test data column</t>
-  </si>
-  <si>
-    <t>Message field with value should exist in response body 
-"message": "something bad happened"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Validate message field  in response body </t>
-  </si>
-  <si>
-    <t>&gt;&gt;Select POST method
-&gt;&gt;Enter API endpoints
-&gt;&gt;Navigate to Headers tab and set KEY:VALUE as below
-Content-Type:application/json
-&gt;&gt;Navigate to Body tab select raw &amp; JSON
-&gt;&gt;Enter raw data (not a JSON)
-&gt;&gt;Verify status code</t>
-  </si>
-  <si>
-    <t>Validate message field  in response body for raw data</t>
-  </si>
-  <si>
-    <t>Message field with value should exist in response body 
-"message": " bad input"</t>
-  </si>
-  <si>
-    <t>&gt;&gt;Select POST method
-&gt;&gt;Enter API endpoints
-&gt;&gt;Navigate to Headers tab and set KEY:VALUE as below
-Content-Type:application/json
-&gt;&gt;Navigate to Body tab select raw &amp; JSON
-&gt;&gt;Enter raw data (not a JSON)</t>
-  </si>
-  <si>
     <t>{
 	"id": 991985,
 	"name": "Milo"
 }</t>
+  </si>
+  <si>
+    <t>create pet - validate status code</t>
+  </si>
+  <si>
+    <t>Id field should exist in response body
+"id": 991985</t>
+  </si>
+  <si>
+    <t>Id and name fields should exist in response body
+"id": 991985
+"name": "Milo"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Select POST method
+ - Enter API endpoints
+ - Navigate to Headers tab and set "Content-Type:application/json"
+ - Navigate to Body tab select raw &amp; JSON
+ - Enter data specified in test data column</t>
+  </si>
+  <si>
+    <t>create pet - validate response header</t>
+  </si>
+  <si>
+    <t>Message field should exist in response body 
+"message": "something bad happened"</t>
+  </si>
+  <si>
+    <t>create pet - validate status code with raw string payload</t>
+  </si>
+  <si>
+    <t>create pet - validate status code with petId as string</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Select POST method
+ - Enter API endpoints
+ - Navigate to Headers tab and set "Content-Type:application/json"
+ - Navigate to Body tab select raw &amp; JSON
+ - Enter data specified in test data column
+ - Verify status code</t>
+  </si>
+  <si>
+    <t>Message field should exist in response body 
+"message": " bad input"</t>
+  </si>
+  <si>
+    <t>get pet - validate status code</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Select GET method
+ - Enter API endpoints
+ - Click Send button</t>
+  </si>
+  <si>
+    <t>/pet/991985</t>
+  </si>
+  <si>
+    <t>get pet - validate response petId matches request petId</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Select GET method
+ - Enter API endpoints
+ - Click Send button
+ - Verify pet id </t>
+  </si>
+  <si>
+    <t>create pet - validate Id and name fields exist in response body</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create pet - validate message field exist in response body </t>
+  </si>
+  <si>
+    <t>create pet - validate message field exist in response body with raw string payload</t>
+  </si>
+  <si>
+    <t>get pet - validate Id field exist in response body</t>
+  </si>
+  <si>
+    <t>Response Id should be 991985</t>
+  </si>
+  <si>
+    <t>Response Content-Type should be application/json</t>
+  </si>
+  <si>
+    <t>get pet - validate response header</t>
+  </si>
+  <si>
+    <t xml:space="preserve">get pet - validate status code with invalid petId </t>
+  </si>
+  <si>
+    <t>get pet - validate status code with petId as string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">get pet - validate status code with petId as special characters </t>
+  </si>
+  <si>
+    <t>get pet - validate status code with request content type as application/text</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Select GET method
+ - Enter API endpoints
+ - Click Send button
+ - Navigate to Headers tab and set "Content-Type:application/json"</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>Postive</t>
+  </si>
+  <si>
+    <t>TC_13</t>
+  </si>
+  <si>
+    <t>TC_14</t>
+  </si>
+  <si>
+    <t>TC_15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -504,8 +423,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -536,14 +463,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -628,21 +549,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -676,16 +611,50 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1010,593 +979,639 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BBC5CD2-598D-A94A-B62A-AB2E1C639876}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.1640625" customWidth="1"/>
-    <col min="2" max="2" width="45.83203125" customWidth="1"/>
-    <col min="3" max="3" width="55.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.83203125" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" customWidth="1"/>
-    <col min="9" max="9" width="18" style="9" customWidth="1"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="50" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.5" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.83203125" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" customWidth="1"/>
+    <col min="10" max="10" width="18" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="24"/>
-    </row>
-    <row r="2" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+    <row r="1" spans="1:10" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+    </row>
+    <row r="2" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21"/>
-    </row>
-    <row r="3" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+    </row>
+    <row r="3" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="19" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="C3" s="20"/>
+    </row>
+    <row r="4" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="21" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="C4" s="22"/>
+    </row>
+    <row r="5" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="21" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="C5" s="22"/>
+    </row>
+    <row r="6" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="29" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="C6" s="30"/>
+    </row>
+    <row r="7" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="21" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="C7" s="22"/>
+    </row>
+    <row r="8" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="24"/>
+    </row>
+    <row r="9" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="22"/>
+    </row>
+    <row r="10" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="26"/>
+    </row>
+    <row r="11" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" s="22"/>
+    </row>
+    <row r="12" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="27"/>
+      <c r="C12" s="28"/>
+    </row>
+    <row r="15" spans="1:10" s="7" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="1" customFormat="1" ht="80" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J21" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" s="9"/>
+      <c r="H22" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="1" customFormat="1" ht="100" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="1" customFormat="1" ht="100" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="100" x14ac:dyDescent="0.2">
+      <c r="A26" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="100" x14ac:dyDescent="0.2">
+      <c r="A27" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I27" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="5"/>
-    </row>
-    <row r="12" spans="1:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="8"/>
-    </row>
-    <row r="15" spans="1:9" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="1" customFormat="1" ht="80" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="14" t="s">
+      <c r="J27" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="100" x14ac:dyDescent="0.2">
+      <c r="A28" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" s="13" t="s">
+      <c r="F28" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="I28" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I16" s="12" t="s">
+      <c r="J28" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="1" customFormat="1" ht="80" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="14" t="s">
+    <row r="29" spans="1:10" ht="120" x14ac:dyDescent="0.2">
+      <c r="A29" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" s="13" t="s">
+      <c r="F29" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I29" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I17" s="12" t="s">
+      <c r="J29" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="1" customFormat="1" ht="80" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="14" t="s">
+    <row r="30" spans="1:10" ht="100" x14ac:dyDescent="0.2">
+      <c r="A30" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="22" t="s">
+      <c r="F30" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H18" s="13" t="s">
+      <c r="G30" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="I30" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I18" s="12" t="s">
+      <c r="J30" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="1" customFormat="1" ht="140" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="H19" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="I19" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I20" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="1" customFormat="1" ht="80" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I21" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="1" customFormat="1" ht="160" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F22" s="13"/>
-      <c r="G22" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I22" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="1" customFormat="1" ht="180" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="G23" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I23" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="1" customFormat="1" ht="160" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H24" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="I24" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="180" x14ac:dyDescent="0.2">
-      <c r="A25" s="12"/>
-      <c r="B25" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="G25" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I25" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="140" x14ac:dyDescent="0.2">
-      <c r="A26" s="12"/>
-      <c r="B26" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F26" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="G26" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I26" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="140" x14ac:dyDescent="0.2">
-      <c r="A27" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F27" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="G27" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="H27" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="I27" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="120" x14ac:dyDescent="0.2">
-      <c r="A28" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F28" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="G28" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="H28" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I28" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="140" x14ac:dyDescent="0.2">
-      <c r="A29" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="G29" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I29" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="120" x14ac:dyDescent="0.2">
-      <c r="A30" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="G30" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I30" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="80" x14ac:dyDescent="0.2">
-      <c r="A34" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B34" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H34" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I34" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A15:I29" xr:uid="{B976BCFC-8A50-D844-94B2-758B0DB17CA0}"/>
-  <mergeCells count="2">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
+  <autoFilter ref="A15:J29" xr:uid="{B976BCFC-8A50-D844-94B2-758B0DB17CA0}"/>
+  <mergeCells count="12">
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>

--- a/Petstore_Test_Script.xlsx
+++ b/Petstore_Test_Script.xlsx
@@ -2,23 +2,27 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nevagipr/workspace/petstore-api-manual/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1C30D4-A20B-2D47-89CA-88D9EE35EDE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FEEC64-BAC3-A541-8165-1B39884D6EAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{AE1E02FE-EB7A-F44F-A821-8E28A1E55D37}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20220" xr2:uid="{AE1E02FE-EB7A-F44F-A821-8E28A1E55D37}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Test Script" sheetId="1" r:id="rId1"/>
+    <sheet name="Test Report" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$15:$J$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Test Script'!$A$15:$J$30</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="11" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="94">
   <si>
     <t>Test Details</t>
   </si>
@@ -73,9 +77,6 @@
   </si>
   <si>
     <t>Created On</t>
-  </si>
-  <si>
-    <t>2nd Nov, 2019</t>
   </si>
   <si>
     <t>Last Modified By</t>
@@ -339,18 +340,12 @@
  - Navigate to Headers tab and set "Content-Type:application/json"</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>Positive</t>
   </si>
   <si>
     <t>Negative</t>
   </si>
   <si>
-    <t>Postive</t>
-  </si>
-  <si>
     <t>TC_13</t>
   </si>
   <si>
@@ -358,13 +353,28 @@
   </si>
   <si>
     <t>TC_15</t>
+  </si>
+  <si>
+    <t>8nd Nov, 2019</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Count of Test Case ID</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -431,8 +441,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -460,6 +478,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFE5E4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC6C9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,7 +614,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -611,62 +653,323 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" pivotButton="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="34">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC6C9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC6C9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFC6C9"/>
       <color rgb="FFFFE5E4"/>
-      <color rgb="FFFFC6C9"/>
       <color rgb="FFFFA3AB"/>
       <color rgb="FFFF3D45"/>
     </mruColors>
@@ -680,6 +983,447 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="43779.871999305557" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="15" xr:uid="{EB34B5F7-8828-C04F-B4B7-0FEB613415AB}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A15:J30" sheet="Test Script"/>
+  </cacheSource>
+  <cacheFields count="10">
+    <cacheField name="Test Case ID" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Category" numFmtId="0">
+      <sharedItems count="2">
+        <s v="Positive"/>
+        <s v="Negative"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Description" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Procedure" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="HTTP Method" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="API Endpoint" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Test Data" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Expected Result" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Actual Result" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Status" numFmtId="0">
+      <sharedItems count="2">
+        <s v="Passed"/>
+        <s v="Failed"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="15">
+  <r>
+    <s v="TC_1"/>
+    <x v="0"/>
+    <s v="get pet - validate status code"/>
+    <s v=" - Select GET method_x000a_ - Enter API endpoints_x000a_ - Click Send button"/>
+    <s v="GET"/>
+    <s v="/pet/991985"/>
+    <m/>
+    <s v="Status code 200"/>
+    <s v="As expected"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="TC_2"/>
+    <x v="0"/>
+    <s v="get pet - validate Id field exist in response body"/>
+    <s v=" - Select GET method_x000a_ - Enter API endpoints_x000a_ - Click Send button"/>
+    <s v="GET"/>
+    <s v="/pet/991985"/>
+    <m/>
+    <s v="Id field should exist in response body_x000a_&quot;id&quot;: 991985"/>
+    <s v="As expected"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="TC_3"/>
+    <x v="0"/>
+    <s v="get pet - validate response petId matches request petId"/>
+    <s v=" - Select GET method_x000a_ - Enter API endpoints_x000a_ - Click Send button_x000a_ - Verify pet id "/>
+    <s v="GET"/>
+    <s v="/pet/991985"/>
+    <m/>
+    <s v="Response Id should be 991985"/>
+    <s v="As expected"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="TC_4"/>
+    <x v="0"/>
+    <s v="get pet - validate response header"/>
+    <s v=" - Select GET method_x000a_ - Enter API endpoints_x000a_ - Click Send button"/>
+    <s v="GET"/>
+    <s v="/pet/991985"/>
+    <m/>
+    <s v="Response Content-Type should be application/json"/>
+    <s v="As expected"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="TC_5"/>
+    <x v="1"/>
+    <s v="get pet - validate status code with invalid petId "/>
+    <s v=" - Select GET method_x000a_ - Enter API endpoints_x000a_ - Click Send button"/>
+    <s v="GET"/>
+    <s v="/pet/0"/>
+    <m/>
+    <s v="Status code 404"/>
+    <s v="As expected"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="TC_6"/>
+    <x v="1"/>
+    <s v="get pet - validate status code with petId as string"/>
+    <s v=" - Select GET method_x000a_ - Enter API endpoints_x000a_ - Click Send button"/>
+    <s v="GET"/>
+    <s v="/pet/string_id"/>
+    <s v=" "/>
+    <s v="Status code 400"/>
+    <s v="Status code 404"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="TC_7"/>
+    <x v="1"/>
+    <s v="get pet - validate status code with petId as special characters "/>
+    <s v=" - Select GET method_x000a_ - Enter API endpoints_x000a_ - Click Send button"/>
+    <s v="GET"/>
+    <s v="/pet/%%##@@"/>
+    <m/>
+    <s v="Status code 400"/>
+    <s v="As expected"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="TC_8"/>
+    <x v="1"/>
+    <s v="get pet - validate status code with request content type as application/text"/>
+    <s v=" - Select GET method_x000a_ - Enter API endpoints_x000a_ - Click Send button_x000a_ - Navigate to Headers tab and set &quot;Content-Type:application/json&quot;"/>
+    <s v="GET"/>
+    <s v="/pet/991985"/>
+    <m/>
+    <s v="Status code 400"/>
+    <s v="Status code 200"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="TC_9"/>
+    <x v="0"/>
+    <s v="create pet - validate status code"/>
+    <s v=" - Select POST method_x000a_ - Enter API endpoints_x000a_ - Navigate to Headers tab and set &quot;Content-Type:application/json&quot;_x000a_ - Navigate to Body tab select raw &amp; JSON_x000a_ - Enter data specified in test data column"/>
+    <s v="POST"/>
+    <s v="/pet/"/>
+    <s v="{_x000a__x0009_&quot;id&quot;: 991985,_x000a__x0009_&quot;name&quot;: &quot;Milo&quot;_x000a_}"/>
+    <s v="Status code 200"/>
+    <s v="Expected status code is &quot;201 Created&quot;"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="TC_10"/>
+    <x v="0"/>
+    <s v="create pet - validate Id and name fields exist in response body"/>
+    <s v=" - Select POST method_x000a_ - Enter API endpoints_x000a_ - Navigate to Headers tab and set &quot;Content-Type:application/json&quot;_x000a_ - Navigate to Body tab select raw &amp; JSON_x000a_ - Enter data specified in test data column"/>
+    <s v="POST"/>
+    <s v="/pet/"/>
+    <s v="{_x000a__x0009_&quot;id&quot;: 991985,_x000a__x0009_&quot;name&quot;: &quot;Milo&quot;_x000a_}"/>
+    <s v="Id and name fields should exist in response body_x000a_&quot;id&quot;: 991985_x000a_&quot;name&quot;: &quot;Milo&quot;"/>
+    <s v="As expected"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="TC_11"/>
+    <x v="0"/>
+    <s v="create pet - validate response header"/>
+    <s v=" - Select POST method_x000a_ - Enter API endpoints_x000a_ - Navigate to Headers tab and set &quot;Content-Type:application/json&quot;_x000a_ - Navigate to Body tab select raw &amp; JSON_x000a_ - Enter data specified in test data column"/>
+    <s v="POST"/>
+    <s v="/pet/"/>
+    <s v="{_x000a__x0009_&quot;id&quot;: 991985,_x000a__x0009_&quot;name&quot;: &quot;Milo&quot;_x000a_}"/>
+    <s v="Response Content-Type should be application/json"/>
+    <s v="As expected"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="TC_12"/>
+    <x v="1"/>
+    <s v="create pet - validate status code with petId as string"/>
+    <s v=" - Select POST method_x000a_ - Enter API endpoints_x000a_ - Navigate to Headers tab and set &quot;Content-Type:application/json&quot;_x000a_ - Navigate to Body tab select raw &amp; JSON_x000a_ - Enter data specified in test data column"/>
+    <s v="POST"/>
+    <s v="/pet/"/>
+    <s v="{_x000a__x0009_&quot;id&quot;:&quot;string id&quot;,_x000a__x0009_&quot;name&quot;:&quot;Milo&quot;_x000a_}"/>
+    <s v="Status code 400"/>
+    <s v="Status code 500"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="TC_13"/>
+    <x v="1"/>
+    <s v="create pet - validate message field exist in response body "/>
+    <s v=" - Select POST method_x000a_ - Enter API endpoints_x000a_ - Navigate to Headers tab and set &quot;Content-Type:application/json&quot;_x000a_ - Navigate to Body tab select raw &amp; JSON_x000a_ - Enter data specified in test data column"/>
+    <s v="POST"/>
+    <s v="/pet/"/>
+    <s v="{_x000a__x0009_&quot;id&quot;:&quot;string id&quot;,_x000a__x0009_&quot;name&quot;:&quot;Milo&quot;_x000a_}"/>
+    <s v="Message field should exist in response body _x000a_&quot;message&quot;: &quot;something bad happened&quot;"/>
+    <s v="As expected"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="TC_14"/>
+    <x v="1"/>
+    <s v="create pet - validate status code with raw string payload"/>
+    <s v=" - Select POST method_x000a_ - Enter API endpoints_x000a_ - Navigate to Headers tab and set &quot;Content-Type:application/json&quot;_x000a_ - Navigate to Body tab select raw &amp; JSON_x000a_ - Enter data specified in test data column_x000a_ - Verify status code"/>
+    <s v="POST"/>
+    <s v="/pet/"/>
+    <s v="rawstring"/>
+    <s v="Status code 400"/>
+    <s v="As expected"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="TC_15"/>
+    <x v="1"/>
+    <s v="create pet - validate message field exist in response body with raw string payload"/>
+    <s v=" - Select POST method_x000a_ - Enter API endpoints_x000a_ - Navigate to Headers tab and set &quot;Content-Type:application/json&quot;_x000a_ - Navigate to Body tab select raw &amp; JSON_x000a_ - Enter data specified in test data column"/>
+    <s v="POST"/>
+    <s v="/pet/"/>
+    <s v="rawstring"/>
+    <s v="Message field should exist in response body _x000a_&quot;message&quot;: &quot; bad input&quot;"/>
+    <s v="As expected"/>
+    <x v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{12A70E78-2FD8-4547-ACA5-0D4C3940FEDE}" name="PivotTable4" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Status">
+  <location ref="B2:E6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="9"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Test Case ID" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="29">
+    <format dxfId="33">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="30">
+      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="29">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="28">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="27">
+      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="26">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="25">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="24">
+      <pivotArea dataOnly="0" fieldPosition="0">
+        <references count="1">
+          <reference field="9" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="23">
+      <pivotArea dataOnly="0" grandRow="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="21">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="9" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="20">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="9" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="19">
+      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="18">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="17">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="16">
+      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="15">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="14">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="13">
+      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="12">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="11">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="10">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="9">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="8">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="9" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="7">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="6">
+      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="5">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="4">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="3">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="1">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -982,13 +1726,13 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="44.5" customWidth="1"/>
     <col min="5" max="5" width="19.6640625" style="5" bestFit="1" customWidth="1"/>
@@ -1000,606 +1744,610 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
+      <c r="A1" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
     </row>
     <row r="2" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
     </row>
     <row r="3" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="20"/>
+      <c r="C3" s="30"/>
     </row>
     <row r="4" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="22"/>
+      <c r="C4" s="20"/>
     </row>
     <row r="5" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="22"/>
+      <c r="C5" s="20"/>
     </row>
     <row r="6" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="30"/>
+      <c r="B6" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="24"/>
     </row>
     <row r="7" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="22"/>
+      <c r="C7" s="20"/>
     </row>
     <row r="8" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="24"/>
+      <c r="C8" s="26"/>
     </row>
     <row r="9" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="22"/>
+      <c r="C9" s="20"/>
     </row>
     <row r="10" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="26"/>
+      <c r="B10" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="18"/>
     </row>
     <row r="11" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="22"/>
+        <v>13</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="20"/>
     </row>
     <row r="12" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="28"/>
+        <v>14</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="22"/>
     </row>
     <row r="15" spans="1:10" s="7" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="6" t="s">
+      <c r="H15" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="I15" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="J15" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C16" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="E16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="9" t="s">
         <v>69</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>70</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="9" t="s">
+      <c r="J16" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D17" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="9" t="s">
         <v>69</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>70</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I17" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="1" customFormat="1" ht="80" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C18" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="D18" s="14" t="s">
-        <v>72</v>
-      </c>
       <c r="E18" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I18" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D19" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="9" t="s">
         <v>69</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>70</v>
       </c>
       <c r="G19" s="9"/>
       <c r="H19" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I19" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G20" s="9"/>
       <c r="H20" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" s="16" t="s">
         <v>25</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="I21" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="J21" s="18" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G22" s="9"/>
       <c r="H22" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I22" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J22" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="1" customFormat="1" ht="100" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C23" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="D23" s="13" t="s">
-        <v>84</v>
-      </c>
       <c r="E23" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G23" s="12"/>
       <c r="H23" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="120" x14ac:dyDescent="0.2">
+      <c r="A26" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="120" x14ac:dyDescent="0.2">
+      <c r="A27" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I27" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="J27" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="120" x14ac:dyDescent="0.2">
+      <c r="A28" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="140" x14ac:dyDescent="0.2">
+      <c r="A29" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="120" x14ac:dyDescent="0.2">
+      <c r="A30" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="E24" s="11" t="s">
+      <c r="B30" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F24" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H24" s="12" t="s">
+      <c r="G30" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="I30" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I24" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="J24" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" s="1" customFormat="1" ht="100" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="H25" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="I25" s="9" t="s">
+      <c r="J30" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J25" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="100" x14ac:dyDescent="0.2">
-      <c r="A26" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G26" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="H26" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J26" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="100" x14ac:dyDescent="0.2">
-      <c r="A27" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G27" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I27" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="J27" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="100" x14ac:dyDescent="0.2">
-      <c r="A28" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G28" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="H28" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J28" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="120" x14ac:dyDescent="0.2">
-      <c r="A29" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="I29" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J29" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="100" x14ac:dyDescent="0.2">
-      <c r="A30" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="H30" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="I30" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J30" s="8" t="s">
-        <v>24</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A15:J29" xr:uid="{B976BCFC-8A50-D844-94B2-758B0DB17CA0}"/>
+  <autoFilter ref="A15:J30" xr:uid="{B976BCFC-8A50-D844-94B2-758B0DB17CA0}"/>
   <mergeCells count="12">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
@@ -1608,10 +2356,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
@@ -1619,4 +2363,94 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92470271-D6EC-5B4E-A627-65DBD6FF9D4E}">
+  <dimension ref="B1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="29.5" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="18.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="48" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+    </row>
+    <row r="3" spans="2:5" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="33">
+        <v>3</v>
+      </c>
+      <c r="D4" s="33">
+        <v>1</v>
+      </c>
+      <c r="E4" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="34">
+        <v>5</v>
+      </c>
+      <c r="D5" s="34">
+        <v>6</v>
+      </c>
+      <c r="E5" s="34">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="39">
+        <v>8</v>
+      </c>
+      <c r="D6" s="39">
+        <v>7</v>
+      </c>
+      <c r="E6" s="39">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>